--- a/flask_ddb/Book1.xlsx
+++ b/flask_ddb/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8170cad16356be2e/PYTHON/Deutsch_DB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8170cad16356be2e/PYTHON/Deutsch_DB/flask_ddb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{AAC1F419-0350-4194-BE36-0EE7F5E407EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EFB19F68-4FF1-455F-8FD2-3E43527817A0}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{AAC1F419-0350-4194-BE36-0EE7F5E407EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CD03CA95-1B84-4061-BEBE-B4C4D4D4E98F}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{F23FC8A5-313D-474E-9845-2FD278AE18BD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>URL</t>
   </si>
@@ -70,6 +70,45 @@
   </si>
   <si>
     <t>A1.1, A1.2, -keine-</t>
+  </si>
+  <si>
+    <t>https://www.liveworksheets.com/bo798294eh</t>
+  </si>
+  <si>
+    <t>A1.2</t>
+  </si>
+  <si>
+    <t>Verkehr, Transport</t>
+  </si>
+  <si>
+    <t>Modalverben</t>
+  </si>
+  <si>
+    <t>https://quizlet.com/520314322/menschen-a21-lektion-5-flash-cards/</t>
+  </si>
+  <si>
+    <t>Tourismus, Stadt</t>
+  </si>
+  <si>
+    <t>https://learningapps.org/2080156</t>
+  </si>
+  <si>
+    <t>A2.1, A2.2</t>
+  </si>
+  <si>
+    <t>Wohnung, Möbel</t>
+  </si>
+  <si>
+    <t>Präpositionen, Wechselpräpositionen</t>
+  </si>
+  <si>
+    <t>https://learningapps.org/8336753</t>
+  </si>
+  <si>
+    <t>A1.1</t>
+  </si>
+  <si>
+    <t>Vorstellung, Smalltalk</t>
   </si>
 </sst>
 </file>
@@ -433,18 +472,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1A9F87-B346-47DD-8E13-9446AC5A429F}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="44.3984375" customWidth="1"/>
-    <col min="2" max="2" width="17.19921875" customWidth="1"/>
+    <col min="2" max="2" width="17.1328125" customWidth="1"/>
     <col min="3" max="3" width="48.1328125" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="4" max="4" width="50.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -489,10 +528,66 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" location="werden_-_im_Pr.C3.A4sens_und_im_Pr.C3.A4teritum" xr:uid="{5683B722-AF25-4BE6-9771-4800CFBAD379}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{E4EDE480-E7B1-4A2D-A281-A88F1C4A546B}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{B6ADE57B-2813-4B85-A021-39350BE08832}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{1F35CF5B-DC3F-4B1C-B34C-708DEF272960}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{C0820499-ECD8-4BD1-A847-17E702FCCEAF}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{1C62D676-0503-4920-9CD1-0E6236AB219A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
